--- a/configTools/Luban/ConfigRoot/Datas/scene.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/scene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="scene" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="scene_module" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="environment" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="scene_boss" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scene" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scene_module" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="environment" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scene_boss" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'scene'!$A$1:$J$82</definedName>
@@ -1490,7 +1490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3983,12 +3983,12 @@
   <autoFilter ref="A1:J82"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9963,12 +9963,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10301,12 +10301,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10682,7 +10682,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/configTools/Luban/ConfigRoot/Datas/scene.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/scene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scene" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scene_module" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="environment" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scene_boss" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="scene" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="scene_module" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="environment" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="scene_boss" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'scene'!$A$1:$J$82</definedName>

--- a/configTools/Luban/ConfigRoot/Datas/scene.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/scene.xlsx
@@ -1490,7 +1490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3983,12 +3983,12 @@
   <autoFilter ref="A1:J82"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9963,12 +9963,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10301,12 +10301,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10682,7 +10682,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
